--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H2">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J2">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.857409555702355</v>
+        <v>1.010483666666667</v>
       </c>
       <c r="N2">
-        <v>0.857409555702355</v>
+        <v>3.031451</v>
       </c>
       <c r="O2">
-        <v>0.3089319020788255</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="P2">
-        <v>0.3089319020788255</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="Q2">
-        <v>13.12934239063526</v>
+        <v>23.15641009831045</v>
       </c>
       <c r="R2">
-        <v>13.12934239063526</v>
+        <v>208.407690884794</v>
       </c>
       <c r="S2">
-        <v>0.01213367987279762</v>
+        <v>0.01690683688621442</v>
       </c>
       <c r="T2">
-        <v>0.01213367987279762</v>
+        <v>0.01690683688621443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H3">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J3">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.56318231369111</v>
+        <v>0.5951253333333333</v>
       </c>
       <c r="N3">
-        <v>0.56318231369111</v>
+        <v>1.785376</v>
       </c>
       <c r="O3">
-        <v>0.2029193426042785</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="P3">
-        <v>0.2029193426042785</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="Q3">
-        <v>8.62389901724818</v>
+        <v>13.63799013597156</v>
       </c>
       <c r="R3">
-        <v>8.62389901724818</v>
+        <v>122.741911223744</v>
       </c>
       <c r="S3">
-        <v>0.007969906398759122</v>
+        <v>0.009957297944964956</v>
       </c>
       <c r="T3">
-        <v>0.007969906398759122</v>
+        <v>0.009957297944964959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H4">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I4">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J4">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.431786158492325</v>
+        <v>0.186716</v>
       </c>
       <c r="N4">
-        <v>0.431786158492325</v>
+        <v>0.560148</v>
       </c>
       <c r="O4">
-        <v>0.155576198500696</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="P4">
-        <v>0.155576198500696</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="Q4">
-        <v>6.611855765636959</v>
+        <v>4.278814601901334</v>
       </c>
       <c r="R4">
-        <v>6.611855765636959</v>
+        <v>38.509331417112</v>
       </c>
       <c r="S4">
-        <v>0.006110446269005273</v>
+        <v>0.003124025711825537</v>
       </c>
       <c r="T4">
-        <v>0.006110446269005273</v>
+        <v>0.003124025711825538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3128015699338</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H5">
-        <v>15.3128015699338</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I5">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J5">
-        <v>0.03927622816274133</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.923021825391851</v>
+        <v>0.449149</v>
       </c>
       <c r="N5">
-        <v>0.923021825391851</v>
+        <v>1.347447</v>
       </c>
       <c r="O5">
-        <v>0.3325725568161998</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="P5">
-        <v>0.3325725568161998</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="Q5">
-        <v>14.1340500569435</v>
+        <v>10.29277244386867</v>
       </c>
       <c r="R5">
-        <v>14.1340500569435</v>
+        <v>92.63495199481801</v>
       </c>
       <c r="S5">
-        <v>0.01306219562217932</v>
+        <v>0.007514905120293538</v>
       </c>
       <c r="T5">
-        <v>0.01306219562217932</v>
+        <v>0.00751490512029354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.4220911076807</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H6">
-        <v>92.4220911076807</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I6">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J6">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.857409555702355</v>
+        <v>0.055101</v>
       </c>
       <c r="N6">
-        <v>0.857409555702355</v>
+        <v>0.165303</v>
       </c>
       <c r="O6">
-        <v>0.3089319020788255</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="P6">
-        <v>0.3089319020788255</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="Q6">
-        <v>79.24358407371908</v>
+        <v>1.262703589298</v>
       </c>
       <c r="R6">
-        <v>79.24358407371908</v>
+        <v>11.364332303682</v>
       </c>
       <c r="S6">
-        <v>0.07323415389101662</v>
+        <v>0.0009219185326768941</v>
       </c>
       <c r="T6">
-        <v>0.07323415389101662</v>
+        <v>0.0009219185326768942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.4220911076807</v>
+        <v>22.91616466666667</v>
       </c>
       <c r="H7">
-        <v>92.4220911076807</v>
+        <v>68.74849400000001</v>
       </c>
       <c r="I7">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891543</v>
       </c>
       <c r="J7">
-        <v>0.237055977055845</v>
+        <v>0.05560000359891545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.56318231369111</v>
+        <v>1.026512333333333</v>
       </c>
       <c r="N7">
-        <v>0.56318231369111</v>
+        <v>3.079537</v>
       </c>
       <c r="O7">
-        <v>0.2029193426042785</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="P7">
-        <v>0.2029193426042785</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="Q7">
-        <v>52.05048710619418</v>
+        <v>23.52372566303089</v>
       </c>
       <c r="R7">
-        <v>52.05048710619418</v>
+        <v>211.713530967278</v>
       </c>
       <c r="S7">
-        <v>0.048103243024587</v>
+        <v>0.01717501940294008</v>
       </c>
       <c r="T7">
-        <v>0.048103243024587</v>
+        <v>0.01717501940294009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J8">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.431786158492325</v>
+        <v>1.010483666666667</v>
       </c>
       <c r="N8">
-        <v>0.431786158492325</v>
+        <v>3.031451</v>
       </c>
       <c r="O8">
-        <v>0.155576198500696</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="P8">
-        <v>0.155576198500696</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="Q8">
-        <v>39.90657967921312</v>
+        <v>94.32653129908431</v>
       </c>
       <c r="R8">
-        <v>39.90657967921312</v>
+        <v>848.9387816917589</v>
       </c>
       <c r="S8">
-        <v>0.03688026774221658</v>
+        <v>0.06886919310659367</v>
       </c>
       <c r="T8">
-        <v>0.03688026774221658</v>
+        <v>0.06886919310659369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.4220911076807</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
-        <v>92.4220911076807</v>
+        <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J9">
-        <v>0.237055977055845</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.923021825391851</v>
+        <v>0.5951253333333333</v>
       </c>
       <c r="N9">
-        <v>0.923021825391851</v>
+        <v>1.785376</v>
       </c>
       <c r="O9">
-        <v>0.3325725568161998</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="P9">
-        <v>0.3325725568161998</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="Q9">
-        <v>85.30760724074339</v>
+        <v>55.55370188884265</v>
       </c>
       <c r="R9">
-        <v>85.30760724074339</v>
+        <v>499.9833169995839</v>
       </c>
       <c r="S9">
-        <v>0.07883831239802476</v>
+        <v>0.04056057792518427</v>
       </c>
       <c r="T9">
-        <v>0.07883831239802476</v>
+        <v>0.04056057792518428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H10">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I10">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J10">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.857409555702355</v>
+        <v>0.186716</v>
       </c>
       <c r="N10">
-        <v>0.857409555702355</v>
+        <v>0.560148</v>
       </c>
       <c r="O10">
-        <v>0.3089319020788255</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="P10">
-        <v>0.3089319020788255</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="Q10">
-        <v>64.73580246546072</v>
+        <v>17.429547056548</v>
       </c>
       <c r="R10">
-        <v>64.73580246546072</v>
+        <v>156.865923508932</v>
       </c>
       <c r="S10">
-        <v>0.05982656861662949</v>
+        <v>0.01272556962994693</v>
       </c>
       <c r="T10">
-        <v>0.05982656861662949</v>
+        <v>0.01272556962994693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H11">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I11">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J11">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.56318231369111</v>
+        <v>0.449149</v>
       </c>
       <c r="N11">
-        <v>0.56318231369111</v>
+        <v>1.347447</v>
       </c>
       <c r="O11">
-        <v>0.2029193426042785</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="P11">
-        <v>0.2029193426042785</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="Q11">
-        <v>42.52117178853211</v>
+        <v>41.92711728454699</v>
       </c>
       <c r="R11">
-        <v>42.52117178853211</v>
+        <v>377.344055560923</v>
       </c>
       <c r="S11">
-        <v>0.0392965824903983</v>
+        <v>0.03061160732728331</v>
       </c>
       <c r="T11">
-        <v>0.0392965824903983</v>
+        <v>0.03061160732728332</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H12">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I12">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J12">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.431786158492325</v>
+        <v>0.055101</v>
       </c>
       <c r="N12">
-        <v>0.431786158492325</v>
+        <v>0.165303</v>
       </c>
       <c r="O12">
-        <v>0.155576198500696</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="P12">
-        <v>0.155576198500696</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="Q12">
-        <v>32.60055043424622</v>
+        <v>5.143562803202999</v>
       </c>
       <c r="R12">
-        <v>32.60055043424622</v>
+        <v>46.292065228827</v>
       </c>
       <c r="S12">
-        <v>0.03012829057823035</v>
+        <v>0.003755391140447019</v>
       </c>
       <c r="T12">
-        <v>0.03012829057823035</v>
+        <v>0.003755391140447019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.5016106770956</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H13">
-        <v>75.5016106770956</v>
+        <v>280.043709</v>
       </c>
       <c r="I13">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178002</v>
       </c>
       <c r="J13">
-        <v>0.1936561689293081</v>
+        <v>0.2264839609178003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.923021825391851</v>
+        <v>1.026512333333333</v>
       </c>
       <c r="N13">
-        <v>0.923021825391851</v>
+        <v>3.079537</v>
       </c>
       <c r="O13">
-        <v>0.3325725568161998</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="P13">
-        <v>0.3325725568161998</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="Q13">
-        <v>69.68963450719764</v>
+        <v>95.82277372030367</v>
       </c>
       <c r="R13">
-        <v>69.68963450719764</v>
+        <v>862.404963482733</v>
       </c>
       <c r="S13">
-        <v>0.06440472724404989</v>
+        <v>0.06996162178834499</v>
       </c>
       <c r="T13">
-        <v>0.06440472724404989</v>
+        <v>0.069961621788345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.9438020134762</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H14">
-        <v>80.9438020134762</v>
+        <v>240.687676</v>
       </c>
       <c r="I14">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J14">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.857409555702355</v>
+        <v>1.010483666666667</v>
       </c>
       <c r="N14">
-        <v>0.857409555702355</v>
+        <v>3.031451</v>
       </c>
       <c r="O14">
-        <v>0.3089319020788255</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="P14">
-        <v>0.3089319020788255</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="Q14">
-        <v>69.40198932123401</v>
+        <v>81.07032178865288</v>
       </c>
       <c r="R14">
-        <v>69.40198932123401</v>
+        <v>729.6328960978759</v>
       </c>
       <c r="S14">
-        <v>0.06413889560529824</v>
+        <v>0.0591906388328161</v>
       </c>
       <c r="T14">
-        <v>0.06413889560529824</v>
+        <v>0.05919063883281611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.9438020134762</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H15">
-        <v>80.9438020134762</v>
+        <v>240.687676</v>
       </c>
       <c r="I15">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J15">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.56318231369111</v>
+        <v>0.5951253333333333</v>
       </c>
       <c r="N15">
-        <v>0.56318231369111</v>
+        <v>1.785376</v>
       </c>
       <c r="O15">
-        <v>0.2029193426042785</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="P15">
-        <v>0.2029193426042785</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="Q15">
-        <v>45.58611769690466</v>
+        <v>47.74644446957511</v>
       </c>
       <c r="R15">
-        <v>45.58611769690466</v>
+        <v>429.7180002261759</v>
       </c>
       <c r="S15">
-        <v>0.04212909849715269</v>
+        <v>0.03486038401965853</v>
       </c>
       <c r="T15">
-        <v>0.04212909849715269</v>
+        <v>0.03486038401965854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.9438020134762</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H16">
-        <v>80.9438020134762</v>
+        <v>240.687676</v>
       </c>
       <c r="I16">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J16">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.431786158492325</v>
+        <v>0.186716</v>
       </c>
       <c r="N16">
-        <v>0.431786158492325</v>
+        <v>0.560148</v>
       </c>
       <c r="O16">
-        <v>0.155576198500696</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="P16">
-        <v>0.155576198500696</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="Q16">
-        <v>34.95041332516221</v>
+        <v>14.98008003733867</v>
       </c>
       <c r="R16">
-        <v>34.95041332516221</v>
+        <v>134.820720336048</v>
       </c>
       <c r="S16">
-        <v>0.03229995182484986</v>
+        <v>0.01093717759611628</v>
       </c>
       <c r="T16">
-        <v>0.03229995182484986</v>
+        <v>0.01093717759611628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.9438020134762</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H17">
-        <v>80.9438020134762</v>
+        <v>240.687676</v>
       </c>
       <c r="I17">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J17">
-        <v>0.2076149959706424</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.923021825391851</v>
+        <v>0.449149</v>
       </c>
       <c r="N17">
-        <v>0.923021825391851</v>
+        <v>1.347447</v>
       </c>
       <c r="O17">
-        <v>0.3325725568161998</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="P17">
-        <v>0.3325725568161998</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="Q17">
-        <v>74.71289588863539</v>
+        <v>36.03487632924134</v>
       </c>
       <c r="R17">
-        <v>74.71289588863539</v>
+        <v>324.313886963172</v>
       </c>
       <c r="S17">
-        <v>0.06904705004334155</v>
+        <v>0.02630959521475411</v>
       </c>
       <c r="T17">
-        <v>0.06904705004334155</v>
+        <v>0.02630959521475412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.1826616038246</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H18">
-        <v>56.1826616038246</v>
+        <v>240.687676</v>
       </c>
       <c r="I18">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J18">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.857409555702355</v>
+        <v>0.055101</v>
       </c>
       <c r="N18">
-        <v>0.857409555702355</v>
+        <v>0.165303</v>
       </c>
       <c r="O18">
-        <v>0.3089319020788255</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="P18">
-        <v>0.3089319020788255</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="Q18">
-        <v>48.17155092391101</v>
+        <v>4.420710545092001</v>
       </c>
       <c r="R18">
-        <v>48.17155092391101</v>
+        <v>39.786394905828</v>
       </c>
       <c r="S18">
-        <v>0.04451846562428047</v>
+        <v>0.003227626034852948</v>
       </c>
       <c r="T18">
-        <v>0.04451846562428047</v>
+        <v>0.003227626034852948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.1826616038246</v>
+        <v>80.22922533333333</v>
       </c>
       <c r="H19">
-        <v>56.1826616038246</v>
+        <v>240.687676</v>
       </c>
       <c r="I19">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="J19">
-        <v>0.1441044622608168</v>
+        <v>0.194654964395505</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.56318231369111</v>
+        <v>1.026512333333333</v>
       </c>
       <c r="N19">
-        <v>0.56318231369111</v>
+        <v>3.079537</v>
       </c>
       <c r="O19">
-        <v>0.2029193426042785</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="P19">
-        <v>0.2029193426042785</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="Q19">
-        <v>31.64108135136663</v>
+        <v>82.35628929844579</v>
       </c>
       <c r="R19">
-        <v>31.64108135136663</v>
+        <v>741.206603686012</v>
       </c>
       <c r="S19">
-        <v>0.02924158274830801</v>
+        <v>0.06012954269730701</v>
       </c>
       <c r="T19">
-        <v>0.02924158274830801</v>
+        <v>0.06012954269730703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.1826616038246</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H20">
-        <v>56.1826616038246</v>
+        <v>242.912704</v>
       </c>
       <c r="I20">
-        <v>0.1441044622608168</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J20">
-        <v>0.1441044622608168</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.431786158492325</v>
+        <v>1.010483666666667</v>
       </c>
       <c r="N20">
-        <v>0.431786158492325</v>
+        <v>3.031451</v>
       </c>
       <c r="O20">
-        <v>0.155576198500696</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="P20">
-        <v>0.155576198500696</v>
+        <v>0.3040797804290828</v>
       </c>
       <c r="Q20">
-        <v>24.25889562778967</v>
+        <v>81.81977327261154</v>
       </c>
       <c r="R20">
-        <v>24.25889562778967</v>
+        <v>736.3779594535039</v>
       </c>
       <c r="S20">
-        <v>0.02241922442552489</v>
+        <v>0.05973782442590356</v>
       </c>
       <c r="T20">
-        <v>0.02241922442552489</v>
+        <v>0.05973782442590357</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.1826616038246</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H21">
-        <v>56.1826616038246</v>
+        <v>242.912704</v>
       </c>
       <c r="I21">
-        <v>0.1441044622608168</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J21">
-        <v>0.1441044622608168</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.923021825391851</v>
+        <v>0.5951253333333333</v>
       </c>
       <c r="N21">
-        <v>0.923021825391851</v>
+        <v>1.785376</v>
       </c>
       <c r="O21">
-        <v>0.3325725568161998</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="P21">
-        <v>0.3325725568161998</v>
+        <v>0.1790880809432032</v>
       </c>
       <c r="Q21">
-        <v>51.85782286893484</v>
+        <v>48.18783464630044</v>
       </c>
       <c r="R21">
-        <v>51.85782286893484</v>
+        <v>433.690511816704</v>
       </c>
       <c r="S21">
-        <v>0.04792518946270342</v>
+        <v>0.03518264950422158</v>
       </c>
       <c r="T21">
-        <v>0.04792518946270342</v>
+        <v>0.03518264950422158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>69.5115776631078</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H22">
-        <v>69.5115776631078</v>
+        <v>242.912704</v>
       </c>
       <c r="I22">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J22">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.857409555702355</v>
+        <v>0.186716</v>
       </c>
       <c r="N22">
-        <v>0.857409555702355</v>
+        <v>0.560148</v>
       </c>
       <c r="O22">
-        <v>0.3089319020788255</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="P22">
-        <v>0.3089319020788255</v>
+        <v>0.05618750916567344</v>
       </c>
       <c r="Q22">
-        <v>59.599890920295</v>
+        <v>15.11856281335467</v>
       </c>
       <c r="R22">
-        <v>59.599890920295</v>
+        <v>136.067065320192</v>
       </c>
       <c r="S22">
-        <v>0.05508013846880311</v>
+        <v>0.01103828591539861</v>
       </c>
       <c r="T22">
-        <v>0.05508013846880311</v>
+        <v>0.01103828591539861</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>69.5115776631078</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H23">
-        <v>69.5115776631078</v>
+        <v>242.912704</v>
       </c>
       <c r="I23">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J23">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.56318231369111</v>
+        <v>0.449149</v>
       </c>
       <c r="N23">
-        <v>0.56318231369111</v>
+        <v>1.347447</v>
       </c>
       <c r="O23">
-        <v>0.2029193426042785</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="P23">
-        <v>0.2029193426042785</v>
+        <v>0.135160155285316</v>
       </c>
       <c r="Q23">
-        <v>39.14769113662834</v>
+        <v>36.36799936296534</v>
       </c>
       <c r="R23">
-        <v>39.14769113662834</v>
+        <v>327.311994266688</v>
       </c>
       <c r="S23">
-        <v>0.03617892944507342</v>
+        <v>0.02655281325979226</v>
       </c>
       <c r="T23">
-        <v>0.03617892944507342</v>
+        <v>0.02655281325979226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>69.5115776631078</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H24">
-        <v>69.5115776631078</v>
+        <v>242.912704</v>
       </c>
       <c r="I24">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J24">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.431786158492325</v>
+        <v>0.055101</v>
       </c>
       <c r="N24">
-        <v>0.431786158492325</v>
+        <v>0.165303</v>
       </c>
       <c r="O24">
-        <v>0.155576198500696</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="P24">
-        <v>0.155576198500696</v>
+        <v>0.01658126750004163</v>
       </c>
       <c r="Q24">
-        <v>30.01413708989422</v>
+        <v>4.461577634368</v>
       </c>
       <c r="R24">
-        <v>30.01413708989422</v>
+        <v>40.154198709312</v>
       </c>
       <c r="S24">
-        <v>0.02773801766086907</v>
+        <v>0.003257463700081295</v>
       </c>
       <c r="T24">
-        <v>0.02773801766086907</v>
+        <v>0.003257463700081295</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>69.5115776631078</v>
+        <v>80.97090133333333</v>
       </c>
       <c r="H25">
-        <v>69.5115776631078</v>
+        <v>242.912704</v>
       </c>
       <c r="I25">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565975</v>
       </c>
       <c r="J25">
-        <v>0.1782921676206465</v>
+        <v>0.1964544447565976</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.923021825391851</v>
+        <v>1.026512333333333</v>
       </c>
       <c r="N25">
-        <v>0.923021825391851</v>
+        <v>3.079537</v>
       </c>
       <c r="O25">
-        <v>0.3325725568161998</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="P25">
-        <v>0.3325725568161998</v>
+        <v>0.3089032066766828</v>
       </c>
       <c r="Q25">
-        <v>64.16070330046918</v>
+        <v>83.11762885978312</v>
       </c>
       <c r="R25">
-        <v>64.16070330046918</v>
+        <v>748.058659738048</v>
       </c>
       <c r="S25">
-        <v>0.05929508204590087</v>
+        <v>0.06068540795120021</v>
       </c>
       <c r="T25">
-        <v>0.05929508204590087</v>
+        <v>0.06068540795120023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>56.835931</v>
+      </c>
+      <c r="H26">
+        <v>170.507793</v>
+      </c>
+      <c r="I26">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J26">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.010483666666667</v>
+      </c>
+      <c r="N26">
+        <v>3.031451</v>
+      </c>
+      <c r="O26">
+        <v>0.3040797804290828</v>
+      </c>
+      <c r="P26">
+        <v>0.3040797804290828</v>
+      </c>
+      <c r="Q26">
+        <v>57.43177995529366</v>
+      </c>
+      <c r="R26">
+        <v>516.8860195976429</v>
+      </c>
+      <c r="S26">
+        <v>0.04193179044881205</v>
+      </c>
+      <c r="T26">
+        <v>0.04193179044881206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>56.835931</v>
+      </c>
+      <c r="H27">
+        <v>170.507793</v>
+      </c>
+      <c r="I27">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J27">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5951253333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.785376</v>
+      </c>
+      <c r="O27">
+        <v>0.1790880809432032</v>
+      </c>
+      <c r="P27">
+        <v>0.1790880809432032</v>
+      </c>
+      <c r="Q27">
+        <v>33.82450238168533</v>
+      </c>
+      <c r="R27">
+        <v>304.420521435168</v>
+      </c>
+      <c r="S27">
+        <v>0.02469576856242713</v>
+      </c>
+      <c r="T27">
+        <v>0.02469576856242713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>56.835931</v>
+      </c>
+      <c r="H28">
+        <v>170.507793</v>
+      </c>
+      <c r="I28">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J28">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.186716</v>
+      </c>
+      <c r="N28">
+        <v>0.560148</v>
+      </c>
+      <c r="O28">
+        <v>0.05618750916567344</v>
+      </c>
+      <c r="P28">
+        <v>0.05618750916567344</v>
+      </c>
+      <c r="Q28">
+        <v>10.612177692596</v>
+      </c>
+      <c r="R28">
+        <v>95.50959923336399</v>
+      </c>
+      <c r="S28">
+        <v>0.007748107607980857</v>
+      </c>
+      <c r="T28">
+        <v>0.007748107607980858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>56.835931</v>
+      </c>
+      <c r="H29">
+        <v>170.507793</v>
+      </c>
+      <c r="I29">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J29">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.449149</v>
+      </c>
+      <c r="N29">
+        <v>1.347447</v>
+      </c>
+      <c r="O29">
+        <v>0.135160155285316</v>
+      </c>
+      <c r="P29">
+        <v>0.135160155285316</v>
+      </c>
+      <c r="Q29">
+        <v>25.527801572719</v>
+      </c>
+      <c r="R29">
+        <v>229.750214154471</v>
+      </c>
+      <c r="S29">
+        <v>0.01863822481210498</v>
+      </c>
+      <c r="T29">
+        <v>0.01863822481210499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>56.835931</v>
+      </c>
+      <c r="H30">
+        <v>170.507793</v>
+      </c>
+      <c r="I30">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J30">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.055101</v>
+      </c>
+      <c r="N30">
+        <v>0.165303</v>
+      </c>
+      <c r="O30">
+        <v>0.01658126750004163</v>
+      </c>
+      <c r="P30">
+        <v>0.01658126750004163</v>
+      </c>
+      <c r="Q30">
+        <v>3.131716634031</v>
+      </c>
+      <c r="R30">
+        <v>28.185449706279</v>
+      </c>
+      <c r="S30">
+        <v>0.002286512550115433</v>
+      </c>
+      <c r="T30">
+        <v>0.002286512550115433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>56.835931</v>
+      </c>
+      <c r="H31">
+        <v>170.507793</v>
+      </c>
+      <c r="I31">
+        <v>0.1378973320410935</v>
+      </c>
+      <c r="J31">
+        <v>0.1378973320410936</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.026512333333333</v>
+      </c>
+      <c r="N31">
+        <v>3.079537</v>
+      </c>
+      <c r="O31">
+        <v>0.3089032066766828</v>
+      </c>
+      <c r="P31">
+        <v>0.3089032066766828</v>
+      </c>
+      <c r="Q31">
+        <v>58.34278414798234</v>
+      </c>
+      <c r="R31">
+        <v>525.085057331841</v>
+      </c>
+      <c r="S31">
+        <v>0.04259692805965307</v>
+      </c>
+      <c r="T31">
+        <v>0.04259692805965308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H32">
+        <v>233.583249</v>
+      </c>
+      <c r="I32">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J32">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.010483666666667</v>
+      </c>
+      <c r="N32">
+        <v>3.031451</v>
+      </c>
+      <c r="O32">
+        <v>0.3040797804290828</v>
+      </c>
+      <c r="P32">
+        <v>0.3040797804290828</v>
+      </c>
+      <c r="Q32">
+        <v>78.67735264047765</v>
+      </c>
+      <c r="R32">
+        <v>708.0961737642989</v>
+      </c>
+      <c r="S32">
+        <v>0.05744349672874299</v>
+      </c>
+      <c r="T32">
+        <v>0.05744349672874301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H33">
+        <v>233.583249</v>
+      </c>
+      <c r="I33">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J33">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.5951253333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.785376</v>
+      </c>
+      <c r="O33">
+        <v>0.1790880809432032</v>
+      </c>
+      <c r="P33">
+        <v>0.1790880809432032</v>
+      </c>
+      <c r="Q33">
+        <v>46.33710297406932</v>
+      </c>
+      <c r="R33">
+        <v>417.0339267666239</v>
+      </c>
+      <c r="S33">
+        <v>0.03383140298674669</v>
+      </c>
+      <c r="T33">
+        <v>0.0338314029867467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H34">
+        <v>233.583249</v>
+      </c>
+      <c r="I34">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J34">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.186716</v>
+      </c>
+      <c r="N34">
+        <v>0.560148</v>
+      </c>
+      <c r="O34">
+        <v>0.05618750916567344</v>
+      </c>
+      <c r="P34">
+        <v>0.05618750916567344</v>
+      </c>
+      <c r="Q34">
+        <v>14.537909973428</v>
+      </c>
+      <c r="R34">
+        <v>130.841189760852</v>
+      </c>
+      <c r="S34">
+        <v>0.01061434270440523</v>
+      </c>
+      <c r="T34">
+        <v>0.01061434270440523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H35">
+        <v>233.583249</v>
+      </c>
+      <c r="I35">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J35">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.449149</v>
+      </c>
+      <c r="N35">
+        <v>1.347447</v>
+      </c>
+      <c r="O35">
+        <v>0.135160155285316</v>
+      </c>
+      <c r="P35">
+        <v>0.135160155285316</v>
+      </c>
+      <c r="Q35">
+        <v>34.971227568367</v>
+      </c>
+      <c r="R35">
+        <v>314.741048115303</v>
+      </c>
+      <c r="S35">
+        <v>0.02553300955108777</v>
+      </c>
+      <c r="T35">
+        <v>0.02553300955108778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H36">
+        <v>233.583249</v>
+      </c>
+      <c r="I36">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J36">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.055101</v>
+      </c>
+      <c r="N36">
+        <v>0.165303</v>
+      </c>
+      <c r="O36">
+        <v>0.01658126750004163</v>
+      </c>
+      <c r="P36">
+        <v>0.01658126750004163</v>
+      </c>
+      <c r="Q36">
+        <v>4.290223534383</v>
+      </c>
+      <c r="R36">
+        <v>38.612011809447</v>
+      </c>
+      <c r="S36">
+        <v>0.003132355541868038</v>
+      </c>
+      <c r="T36">
+        <v>0.003132355541868038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>77.86108299999999</v>
+      </c>
+      <c r="H37">
+        <v>233.583249</v>
+      </c>
+      <c r="I37">
+        <v>0.1889092942900881</v>
+      </c>
+      <c r="J37">
+        <v>0.1889092942900882</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.026512333333333</v>
+      </c>
+      <c r="N37">
+        <v>3.079537</v>
+      </c>
+      <c r="O37">
+        <v>0.3089032066766828</v>
+      </c>
+      <c r="P37">
+        <v>0.3089032066766828</v>
+      </c>
+      <c r="Q37">
+        <v>79.92536198619034</v>
+      </c>
+      <c r="R37">
+        <v>719.328257875713</v>
+      </c>
+      <c r="S37">
+        <v>0.05835468677723739</v>
+      </c>
+      <c r="T37">
+        <v>0.0583546867772374</v>
       </c>
     </row>
   </sheetData>
